--- a/experiment results/ICSE demo paper - experiment results.xlsx
+++ b/experiment results/ICSE demo paper - experiment results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documents\GitHub\DroidConfigurator\experiment results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65542343-E6B2-476E-A6EA-5413A16A2FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE67C99E-8326-4761-8EB7-ADB93C51245C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE1EA558-9647-4352-B17E-F1587487E445}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE1EA558-9647-4352-B17E-F1587487E445}"/>
   </bookViews>
   <sheets>
     <sheet name="resullts experiment" sheetId="1" r:id="rId1"/>
@@ -546,21 +546,6 @@
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,6 +641,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -974,18 +974,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BBF174-955F-4B52-B67F-F69295F31439}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="39" bestFit="1" customWidth="1"/>
@@ -993,772 +993,772 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="6">
         <v>6.7780900794755638E-3</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <v>0.22419787706672589</v>
       </c>
-      <c r="D3" s="12">
-        <f t="shared" ref="D3:D16" si="0" xml:space="preserve"> 2 * B3 * C3 / (B3 + C3)</f>
+      <c r="D3" s="7">
+        <f xml:space="preserve"> 2 * B3 * C3 / (B3 + C3)</f>
         <v>1.3158368164109218E-2</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="7">
         <v>8.2292381761312511E-2</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="7">
         <v>0.11738423205898371</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="9">
         <v>1.7028330319469508E-2</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="10">
         <v>6.0426746943988266E-2</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="10">
         <v>0.28843413610654944</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="10">
         <v>9.9920268504241905E-2</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="10">
         <v>0.2560274889010517</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="10">
         <v>0.26579348517534107</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="11">
         <v>1</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="12">
         <v>1.5606936416184925E-2</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="14">
         <v>1.8667674796220691E-3</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="15">
         <v>7.5767927290254833E-2</v>
       </c>
-      <c r="D4" s="20">
-        <f t="shared" si="0"/>
+      <c r="D4" s="15">
+        <f t="shared" ref="D3:D16" si="0" xml:space="preserve"> 2 * B4 * C4 / (B4 + C4)</f>
         <v>3.6437601276870838E-3</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="15">
         <v>3.471570023496723E-3</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="15">
         <v>1.6756893499023699E-2</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="16">
         <v>1</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="17">
         <v>7.2031344183242875E-3</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="18">
         <v>4.8343367998540301E-3</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="18">
         <v>2.417168399927019E-2</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="18">
         <v>8.0572279997567203E-3</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="18">
         <v>1.422745241136043E-2</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="18">
         <v>1.664615722236127E-2</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="19">
         <v>1</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="20">
         <v>4.6242774566473757E-3</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="38">
+      <c r="R4" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="19">
         <v>3.5375034346837197E-2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="15">
         <v>0.33652253246703401</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="16">
         <f xml:space="preserve"> 2 * B5 * C5 / (B5 + C5)</f>
         <v>6.4020295945974678E-2</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="15">
         <v>0.18397000346536826</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="15">
         <v>0.22652668120780522</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="15">
         <v>0.8296760264012818</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="17">
         <v>5.5816757082579826E-2</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="19">
         <v>0.2530899470899467</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="19">
         <v>0.48753968253968233</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="19">
         <v>0.33320674064828504</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="19">
         <v>0.42603174603174565</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="19">
         <v>0.44662937315747592</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="18">
         <v>0.29389801131180399</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="20">
         <v>2.716763005780341E-2</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="19">
         <v>2.6003344712850728E-2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <v>0.34567996376550469</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>4.8368248199897969E-2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="16">
         <v>0.18401976834139139</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="15">
         <v>0.22848244316759431</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="15">
         <v>0.86330054834155834</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="22">
         <v>5.6509945750452019E-2</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="19">
         <v>0.24935052910052882</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="19">
         <v>0.4767261904761903</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="19">
         <v>0.32743627395357416</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="19">
         <v>0.41660714285714262</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="19">
         <v>0.4380301210274774</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="18">
         <v>0.30425104907863482</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="20">
         <v>2.7745664739884331E-2</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="Q6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="14">
         <v>2.2392410083334553E-2</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="15">
         <v>0.36030126997325179</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>4.216434297840678E-2</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="15">
         <v>0.18340574671147603</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <v>0.23165773524783048</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="15">
         <v>0.8680502576032969</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="22">
         <v>5.6901748040988499E-2</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="18">
         <v>0.24198941798941762</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="18">
         <v>0.47140211640211616</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="18">
         <v>0.31980845941611602</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="18">
         <v>0.41128306878306847</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="18">
         <v>0.43236008502916051</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="18">
         <v>0.30782247765006343</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="20">
         <v>2.7745664739884331E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="14">
         <v>2.0681739245524876E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="15">
         <v>0.36854049639201414</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>3.9165585878263832E-2</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <v>0.18429888423939561</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <v>0.23451849672149899</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="15">
         <v>0.86835146242257399</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="22">
         <v>5.6962025316455632E-2</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="18">
         <v>0.2342895992895988</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="18">
         <v>0.45463055463055424</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="18">
         <v>0.30922367378308951</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="18">
         <v>0.39430754430754389</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="18">
         <v>0.41548368190915613</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="18">
         <v>0.32507206714103226</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="20">
         <v>2.8901734104046183E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="14">
         <v>1.8411769767654011E-2</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="16">
         <v>0.38298306540904326</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>3.5134463163272137E-2</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="15">
         <v>0.1762430152727327</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="15">
         <v>0.23132462435335741</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="15">
         <v>0.86835146242257399</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="22">
         <v>5.672091621458706E-2</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="18">
         <v>0.16491242091242039</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="18">
         <v>0.37952629070276078</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="18">
         <v>0.22991972489987825</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="18">
         <v>0.31757260060201192</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="18">
         <v>0.33819937384291249</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="18">
         <v>0.50175059295748903</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="20">
         <v>3.1791907514450789E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="14">
         <v>1.8570559685567679E-2</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="16">
         <v>0.38684680724665199</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>3.5439832178409403E-2</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>0.16593456659944639</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="15">
         <v>0.22355646770351051</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="15">
         <v>0.86835146242257399</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="17">
         <v>5.5455093429776926E-2</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="18">
         <v>0.16491242091242039</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="18">
         <v>0.37952629070276078</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="18">
         <v>0.22991972489987825</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="18">
         <v>0.32176063479004624</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="18">
         <v>0.34136865978204384</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="18">
         <v>0.50175059295748903</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="20">
         <v>3.2947976878612659E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="14">
         <v>2.2784521166842896E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="15">
         <v>0.2584950996973433</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>4.187780865520347E-2</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="15">
         <v>0.13745943686828027</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="15">
         <v>0.16763590169692971</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="15">
         <v>0.92620927223600602</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="17">
         <v>5.3435804701627412E-2</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="18">
         <v>8.4036137775268124E-2</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="18">
         <v>0.35729348348913553</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="18">
         <v>0.13606865688586969</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="18">
         <v>0.29659921941987133</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="18">
         <v>0.31549698271821136</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="18">
         <v>0.45231527093596002</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="20">
         <v>2.8901734104046183E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="14">
         <v>1.5180388995099658E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="15">
         <v>0.25980986081480739</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>2.8684760675390213E-2</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="15">
         <v>0.13451348052485179</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="15">
         <v>0.16527149154581008</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="15">
         <v>0.98381021057612339</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="17">
         <v>5.4460518384568966E-2</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="18">
         <v>6.9693674682805018E-2</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="18">
         <v>0.27879407548972746</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="18">
         <v>0.11151142954697706</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="18">
         <v>0.18134688379253561</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="18">
         <v>0.207199094448697</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="18">
         <v>0.79905218025907621</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="20">
         <v>2.9479768786127115E-2</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="14">
         <v>1.1543181613609541E-2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="15">
         <v>0.26501353351884127</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>2.2122763108516783E-2</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="15">
         <v>0.1331796674463645</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="15">
         <v>0.16518068269734426</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="16">
         <v>1</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="17">
         <v>5.494273658830616E-2</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="18">
         <v>3.983894607807649E-2</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="18">
         <v>0.18595519215084411</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="18">
         <v>6.5619585443134884E-2</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="18">
         <v>0.15773327517892702</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="18">
         <v>0.16695456584149182</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="18">
         <v>0.80607188469257385</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="20">
         <v>2.9479768786127115E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="14">
         <v>9.6585601909436394E-3</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>0.27064197259919698</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>1.8651493498959268E-2</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <v>0.13287870219621947</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="15">
         <v>0.16607397808546828</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="16">
         <v>1</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="17">
         <v>5.5424954792043367E-2</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="18">
         <v>4.132726516639558E-2</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="18">
         <v>0.1876275568232087</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="18">
         <v>6.7735055553516832E-2</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="18">
         <v>0.15786076805641994</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="18">
         <v>0.16749015485044072</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="18">
         <v>0.81975004561211429</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="20">
         <v>3.0057803468208043E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="14">
         <v>8.4054505706748165E-3</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="15">
         <v>0.30448654628930055</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="15">
         <f t="shared" si="0"/>
         <v>1.6359297393058969E-2</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="15">
         <v>0.1333588287674593</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="15">
         <v>0.17612490975647421</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="16">
         <v>1</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="17">
         <v>5.461121157323684E-2</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="18">
         <v>4.3509213647144628E-2</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="18">
         <v>0.2020653165480748</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="18">
         <v>7.1601098219584353E-2</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="18">
         <v>0.16175591437085632</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="18">
         <v>0.1744444057303389</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="19">
         <v>1</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="23">
         <v>3.5838150289017275E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="25">
         <v>8.4329671612608913E-3</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="26">
         <v>0.30203052271780167</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="26">
         <f t="shared" si="0"/>
         <v>1.6407813239294852E-2</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="26">
         <v>0.12432549612251562</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="26">
         <v>0.1685648879990973</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="27">
         <v>1</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="28">
         <v>5.2230259192284453E-2</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="29">
         <v>4.2105272760445109E-2</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="29">
         <v>0.19504561211457722</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="29">
         <v>6.9259270975439796E-2</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="29">
         <v>0.1607541963145406</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="29">
         <v>0.17179047768620981</v>
       </c>
-      <c r="N16" s="35">
+      <c r="N16" s="30">
         <v>1</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="31">
         <v>3.4104046242774508E-2</v>
       </c>
     </row>
